--- a/Result/Sketch.xlsx
+++ b/Result/Sketch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="500" windowWidth="26660" windowHeight="15640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4400" yWindow="740" windowWidth="26660" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform" sheetId="1" r:id="rId1"/>
@@ -464,11 +464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1863168064"/>
-        <c:axId val="-1503686448"/>
+        <c:axId val="1725498176"/>
+        <c:axId val="1725499952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1863168064"/>
+        <c:axId val="1725498176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,7 +511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1503686448"/>
+        <c:crossAx val="1725499952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1503686448"/>
+        <c:axId val="1725499952"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -571,7 +571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1863168064"/>
+        <c:crossAx val="1725498176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -984,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1884442144"/>
-        <c:axId val="-1357722064"/>
+        <c:axId val="1725801392"/>
+        <c:axId val="1725804144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1884442144"/>
+        <c:axId val="1725801392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1357722064"/>
+        <c:crossAx val="1725804144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1357722064"/>
+        <c:axId val="1725804144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1092,7 +1092,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1884442144"/>
+        <c:crossAx val="1725801392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,11 +1505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1439579216"/>
-        <c:axId val="-1576511424"/>
+        <c:axId val="1725531520"/>
+        <c:axId val="1725534272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1439579216"/>
+        <c:axId val="1725531520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1552,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1576511424"/>
+        <c:crossAx val="1725534272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1576511424"/>
+        <c:axId val="1725534272"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439579216"/>
+        <c:crossAx val="1725531520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,11 +2026,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1439667264"/>
-        <c:axId val="-1439230352"/>
+        <c:axId val="1725562672"/>
+        <c:axId val="1725565424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1439667264"/>
+        <c:axId val="1725562672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2073,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439230352"/>
+        <c:crossAx val="1725565424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1439230352"/>
+        <c:axId val="1725565424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2132,7 +2132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439667264"/>
+        <c:crossAx val="1725562672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2545,11 +2545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1576674176"/>
-        <c:axId val="-1515663888"/>
+        <c:axId val="1725593680"/>
+        <c:axId val="1725596432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1576674176"/>
+        <c:axId val="1725593680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2592,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515663888"/>
+        <c:crossAx val="1725596432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1515663888"/>
+        <c:axId val="1725596432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2651,7 +2651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1576674176"/>
+        <c:crossAx val="1725593680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3064,11 +3064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1451761520"/>
-        <c:axId val="-1499647184"/>
+        <c:axId val="1725639872"/>
+        <c:axId val="1725642624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1451761520"/>
+        <c:axId val="1725639872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,7 +3111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499647184"/>
+        <c:crossAx val="1725642624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3119,7 +3119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1499647184"/>
+        <c:axId val="1725642624"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3170,7 +3170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1451761520"/>
+        <c:crossAx val="1725639872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3583,11 +3583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1499924736"/>
-        <c:axId val="-1435923504"/>
+        <c:axId val="1725667616"/>
+        <c:axId val="1725670368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1499924736"/>
+        <c:axId val="1725667616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,7 +3630,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1435923504"/>
+        <c:crossAx val="1725670368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3638,7 +3638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1435923504"/>
+        <c:axId val="1725670368"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3689,7 +3689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1499924736"/>
+        <c:crossAx val="1725667616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4102,11 +4102,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1436180272"/>
-        <c:axId val="-1435803168"/>
+        <c:axId val="1725698848"/>
+        <c:axId val="1725701600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1436180272"/>
+        <c:axId val="1725698848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,7 +4149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1435803168"/>
+        <c:crossAx val="1725701600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4157,7 +4157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1435803168"/>
+        <c:axId val="1725701600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4208,7 +4208,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1436180272"/>
+        <c:crossAx val="1725698848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4621,11 +4621,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1451392512"/>
-        <c:axId val="-1436048016"/>
+        <c:axId val="1725731856"/>
+        <c:axId val="1725734608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1451392512"/>
+        <c:axId val="1725731856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4668,7 +4668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1436048016"/>
+        <c:crossAx val="1725734608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4676,7 +4676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1436048016"/>
+        <c:axId val="1725734608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4727,7 +4727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1451392512"/>
+        <c:crossAx val="1725731856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5140,11 +5140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1862471664"/>
-        <c:axId val="-1862512736"/>
+        <c:axId val="1725769648"/>
+        <c:axId val="1725772400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1862471664"/>
+        <c:axId val="1725769648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +5187,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1862512736"/>
+        <c:crossAx val="1725772400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5195,7 +5195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1862512736"/>
+        <c:axId val="1725772400"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5246,7 +5246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1862471664"/>
+        <c:crossAx val="1725769648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11467,8 +11467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11848,7 +11848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
@@ -12229,7 +12229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:K7"/>
     </sheetView>
   </sheetViews>

--- a/Result/Sketch.xlsx
+++ b/Result/Sketch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="740" windowWidth="26660" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="-100" yWindow="1240" windowWidth="26660" windowHeight="15580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uniform" sheetId="1" r:id="rId1"/>
@@ -464,11 +464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725498176"/>
-        <c:axId val="1725499952"/>
+        <c:axId val="207144944"/>
+        <c:axId val="207147264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725498176"/>
+        <c:axId val="207144944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,7 +511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725499952"/>
+        <c:crossAx val="207147264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725499952"/>
+        <c:axId val="207147264"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -571,7 +571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725498176"/>
+        <c:crossAx val="207144944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -984,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725801392"/>
-        <c:axId val="1725804144"/>
+        <c:axId val="126865648"/>
+        <c:axId val="126868400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725801392"/>
+        <c:axId val="126865648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725804144"/>
+        <c:crossAx val="126868400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725804144"/>
+        <c:axId val="126868400"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1092,7 +1092,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725801392"/>
+        <c:crossAx val="126865648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,11 +1505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725531520"/>
-        <c:axId val="1725534272"/>
+        <c:axId val="207173504"/>
+        <c:axId val="207176256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725531520"/>
+        <c:axId val="207173504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1552,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725534272"/>
+        <c:crossAx val="207176256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725534272"/>
+        <c:axId val="207176256"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725531520"/>
+        <c:crossAx val="207173504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,11 +2026,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725562672"/>
-        <c:axId val="1725565424"/>
+        <c:axId val="207204512"/>
+        <c:axId val="207207264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725562672"/>
+        <c:axId val="207204512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2073,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725565424"/>
+        <c:crossAx val="207207264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725565424"/>
+        <c:axId val="207207264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2132,7 +2132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725562672"/>
+        <c:crossAx val="207204512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2545,11 +2545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725593680"/>
-        <c:axId val="1725596432"/>
+        <c:axId val="192760160"/>
+        <c:axId val="192762912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725593680"/>
+        <c:axId val="192760160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2592,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725596432"/>
+        <c:crossAx val="192762912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725596432"/>
+        <c:axId val="192762912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2651,7 +2651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725593680"/>
+        <c:crossAx val="192760160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3064,11 +3064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725639872"/>
-        <c:axId val="1725642624"/>
+        <c:axId val="192804720"/>
+        <c:axId val="192807472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725639872"/>
+        <c:axId val="192804720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,7 +3111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725642624"/>
+        <c:crossAx val="192807472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3119,7 +3119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725642624"/>
+        <c:axId val="192807472"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3170,7 +3170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725639872"/>
+        <c:crossAx val="192804720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3583,11 +3583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725667616"/>
-        <c:axId val="1725670368"/>
+        <c:axId val="192837280"/>
+        <c:axId val="192840032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725667616"/>
+        <c:axId val="192837280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,7 +3630,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725670368"/>
+        <c:crossAx val="192840032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3638,7 +3638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725670368"/>
+        <c:axId val="192840032"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3689,7 +3689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725667616"/>
+        <c:crossAx val="192837280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4102,11 +4102,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725698848"/>
-        <c:axId val="1725701600"/>
+        <c:axId val="192865984"/>
+        <c:axId val="192868736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725698848"/>
+        <c:axId val="192865984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,7 +4149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725701600"/>
+        <c:crossAx val="192868736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4157,7 +4157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725701600"/>
+        <c:axId val="192868736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4208,7 +4208,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725698848"/>
+        <c:crossAx val="192865984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4621,11 +4621,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725731856"/>
-        <c:axId val="1725734608"/>
+        <c:axId val="126791504"/>
+        <c:axId val="126794256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725731856"/>
+        <c:axId val="126791504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4668,7 +4668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725734608"/>
+        <c:crossAx val="126794256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4676,7 +4676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725734608"/>
+        <c:axId val="126794256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4727,7 +4727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725731856"/>
+        <c:crossAx val="126791504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5140,11 +5140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725769648"/>
-        <c:axId val="1725772400"/>
+        <c:axId val="126834000"/>
+        <c:axId val="126836752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725769648"/>
+        <c:axId val="126834000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +5187,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725772400"/>
+        <c:crossAx val="126836752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5195,7 +5195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725772400"/>
+        <c:axId val="126836752"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5246,7 +5246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725769648"/>
+        <c:crossAx val="126834000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11465,15 +11465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1.3275199999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1.1040100000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>1.020793E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>9.3106700000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>9.2275699999999992E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11654,8 +11654,16 @@
       <c r="K7">
         <v>7.9960299999999995E-3</v>
       </c>
+      <c r="M7">
+        <f>I7/K7</f>
+        <v>2.1479909405042252</v>
+      </c>
+      <c r="N7">
+        <f>J7/K7</f>
+        <v>115.48656020550199</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -11681,7 +11689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11707,7 +11715,7 @@
         <v>0.96402900000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -11733,7 +11741,7 @@
         <v>0.97794099999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11759,7 +11767,7 @@
         <v>0.98142200000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11785,7 +11793,7 @@
         <v>0.98856200000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11811,7 +11819,7 @@
         <v>0.98694899999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11824,6 +11832,14 @@
       <c r="D16">
         <v>0.98856200000000005</v>
       </c>
+      <c r="F16">
+        <f>D16-B16</f>
+        <v>0.21895400000000009</v>
+      </c>
+      <c r="G16">
+        <f>D16-C16</f>
+        <v>0.42973800000000006</v>
+      </c>
       <c r="H16">
         <v>6</v>
       </c>
@@ -11835,6 +11851,14 @@
       </c>
       <c r="K16">
         <v>0.98774499999999998</v>
+      </c>
+      <c r="M16">
+        <f>K16-I16</f>
+        <v>0.11471399999999998</v>
+      </c>
+      <c r="N16">
+        <f>K16-J16</f>
+        <v>0.87697599999999998</v>
       </c>
     </row>
   </sheetData>
@@ -11846,15 +11870,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11880,7 +11904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11906,7 +11930,7 @@
         <v>1.3275199999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11932,7 +11956,7 @@
         <v>5.1628999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11958,7 +11982,7 @@
         <v>2.84205E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11984,7 +12008,7 @@
         <v>2.0521799999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12010,7 +12034,7 @@
         <v>1.70192E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12035,8 +12059,16 @@
       <c r="K7">
         <v>1.0150599999999999E-3</v>
       </c>
+      <c r="M7">
+        <f>I7/K7</f>
+        <v>22.477291982739938</v>
+      </c>
+      <c r="N7">
+        <f>J7/K7</f>
+        <v>816.82363604121929</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -12062,7 +12094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12088,7 +12120,7 @@
         <v>0.96402900000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -12114,7 +12146,7 @@
         <v>0.99102000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12140,7 +12172,7 @@
         <v>0.99673699999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -12166,7 +12198,7 @@
         <v>0.99755099999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -12192,7 +12224,7 @@
         <v>0.99754699999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12205,6 +12237,14 @@
       <c r="D16">
         <v>0.99918300000000004</v>
       </c>
+      <c r="F16">
+        <f>D16-B16</f>
+        <v>0.43300700000000003</v>
+      </c>
+      <c r="G16">
+        <f>D16-C16</f>
+        <v>0.16176500000000005</v>
+      </c>
       <c r="H16">
         <v>6</v>
       </c>
@@ -12216,6 +12256,14 @@
       </c>
       <c r="K16">
         <v>0.99918300000000004</v>
+      </c>
+      <c r="M16">
+        <f>K16-I16</f>
+        <v>0.22140500000000007</v>
+      </c>
+      <c r="N16">
+        <f>K16-J16</f>
+        <v>0.84009600000000006</v>
       </c>
     </row>
   </sheetData>
@@ -12227,15 +12275,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12261,7 +12309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12286,8 +12334,16 @@
       <c r="K2">
         <v>0.75725699999999996</v>
       </c>
+      <c r="M2">
+        <f>I2/K2</f>
+        <v>3.4420810900394452</v>
+      </c>
+      <c r="N2">
+        <f>J2/K2</f>
+        <v>26.067240051924248</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12312,8 +12368,16 @@
       <c r="K3">
         <v>0.36072900000000002</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:N7" si="0">I3/K3</f>
+        <v>6.8568094053985122</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="1">J3/K3</f>
+        <v>54.625217268364885</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12338,8 +12402,16 @@
       <c r="K4">
         <v>0.20480899999999999</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>11.400817346893936</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>96.085621237347979</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12364,8 +12436,16 @@
       <c r="K5">
         <v>0.133158</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>16.697231859895762</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>147.61185959536792</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12390,8 +12470,16 @@
       <c r="K6">
         <v>9.2343599999999998E-2</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>22.251785722020799</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>212.62220662828827</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12415,6 +12503,14 @@
       </c>
       <c r="K7">
         <v>6.8748000000000004E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>27.953395007854773</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>285.31884563914588</v>
       </c>
     </row>
   </sheetData>
